--- a/KatalonData/VerifyUINoCFCCTestData.xlsx
+++ b/KatalonData/VerifyUINoCFCCTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KatalonData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6D8BBB-27F6-40A2-86C0-FB600723EBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C8637-DB4C-45F4-A8DF-204E6C622B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="2325" windowWidth="12840" windowHeight="11565" xr2:uid="{B09A5AEA-02B2-4406-A6E2-23194C6B960B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{B09A5AEA-02B2-4406-A6E2-23194C6B960B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,69 +240,9 @@
     <t>VerCAN</t>
   </si>
   <si>
-    <t>CCAmount</t>
-  </si>
-  <si>
-    <t>CCUDF1</t>
-  </si>
-  <si>
-    <t>CCUDF2</t>
-  </si>
-  <si>
-    <t>CCUDF3</t>
-  </si>
-  <si>
-    <t>CCUDF4</t>
-  </si>
-  <si>
-    <t>CCUDF6</t>
-  </si>
-  <si>
-    <t>CCUDF5</t>
-  </si>
-  <si>
-    <t>CCUDF7</t>
-  </si>
-  <si>
-    <t>CCUDF8</t>
-  </si>
-  <si>
-    <t>CCUDF9</t>
-  </si>
-  <si>
-    <t>CCUDF10</t>
-  </si>
-  <si>
-    <t>CCName</t>
-  </si>
-  <si>
-    <t>CCCardNum</t>
-  </si>
-  <si>
-    <t>CCSPC</t>
-  </si>
-  <si>
-    <t>CCExpM</t>
-  </si>
-  <si>
-    <t>CCExpY</t>
-  </si>
-  <si>
     <t>CCDate</t>
   </si>
   <si>
-    <t>CCAL1</t>
-  </si>
-  <si>
-    <t>CCAL2</t>
-  </si>
-  <si>
-    <t>CCZIP</t>
-  </si>
-  <si>
-    <t>CCEmail</t>
-  </si>
-  <si>
     <t>Some Data 2</t>
   </si>
   <si>
@@ -352,6 +292,66 @@
   </si>
   <si>
     <t>RAJ KUMAR RAO</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>UDF1</t>
+  </si>
+  <si>
+    <t>UDF2</t>
+  </si>
+  <si>
+    <t>UDF3</t>
+  </si>
+  <si>
+    <t>UDF4</t>
+  </si>
+  <si>
+    <t>UDF5</t>
+  </si>
+  <si>
+    <t>UDF6</t>
+  </si>
+  <si>
+    <t>UDF7</t>
+  </si>
+  <si>
+    <t>UDF8</t>
+  </si>
+  <si>
+    <t>UDF9</t>
+  </si>
+  <si>
+    <t>UDF10</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CardNum</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>ExpM</t>
+  </si>
+  <si>
+    <t>ExpY</t>
+  </si>
+  <si>
+    <t>AL1</t>
+  </si>
+  <si>
+    <t>AL2</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,9 +426,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +466,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -572,7 +572,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -714,7 +714,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,9 +724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B3A090-036A-40B0-A9B9-346B67CB3963}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,67 +739,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>67</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>2</v>
@@ -820,10 +820,10 @@
         <v>4</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>19</v>
@@ -891,10 +891,10 @@
         <v>21</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -950,7 +950,7 @@
         <v>22</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>40</v>
@@ -962,10 +962,10 @@
         <v>42</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
@@ -1021,7 +1021,7 @@
         <v>23</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>54</v>
@@ -1033,10 +1033,10 @@
         <v>42</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>56</v>
@@ -1092,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>65</v>
@@ -1104,15 +1104,18 @@
         <v>42</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1120,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CB0DF0-A72D-4935-A701-68E37F979488}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,67 +1137,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>67</v>
@@ -1203,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>2</v>
@@ -1215,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -1229,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1274,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>19</v>
@@ -1286,10 +1289,10 @@
         <v>21</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -1300,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1345,7 +1348,7 @@
         <v>22</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>40</v>
@@ -1357,10 +1360,10 @@
         <v>42</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -1371,7 +1374,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
@@ -1416,7 +1419,7 @@
         <v>23</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>54</v>
@@ -1428,10 +1431,10 @@
         <v>42</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1442,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>56</v>
@@ -1487,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>65</v>
@@ -1499,13 +1502,16 @@
         <v>42</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>